--- a/BingChilling/attendanceW.xlsx
+++ b/BingChilling/attendanceW.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,20 +421,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>RASHEED</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OMAR</t>
+        </is>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NO SHOULD I ASK FOR</t>
+          <t>AYUB</t>
         </is>
       </c>
     </row>
